--- a/data/trans_dic/P19_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>92,62%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>94,09%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>91,65%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>90,91%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,5</t>
+          <t>86,86; 97,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,06</t>
+          <t>92,73; 99,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,47</t>
+          <t>87,13; 94,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,63</t>
+          <t>91,6; 97,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,02</t>
+          <t>89,78; 97,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 12,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,46</t>
+          <t>85,84; 95,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,37</t>
+          <t>85,18; 95,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 17,71</t>
+          <t>87,71; 94,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,88</t>
+          <t>87,59; 93,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 9,05</t>
+          <t>82,02; 92,64</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,85</t>
+          <t>88,23; 95,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>90,18; 96,58</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>88,51; 93,75</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>90,49; 94,72</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>86,9; 94,03</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>90,83%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>93,97%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>94,99%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>93,55%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,14</t>
+          <t>90,2; 96,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,11</t>
+          <t>94,29; 98,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,4</t>
+          <t>94,17; 97,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,08</t>
+          <t>89,39; 95,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,02</t>
+          <t>90,39; 96,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,98</t>
+          <t>82,24; 91,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,98</t>
+          <t>86,09; 94,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 15,23</t>
+          <t>91,33; 95,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,98</t>
+          <t>90,13; 94,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,19</t>
+          <t>90,83; 95,78</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,82</t>
+          <t>87,75; 93,28</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>91,01; 95,72</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>93,49; 96,37</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>90,68; 94,31</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>91,3; 95,12</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>91,51%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>94,91%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>94,78%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>92,92%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,03</t>
+          <t>91,4; 97,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,95</t>
+          <t>91,89; 98,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,43</t>
+          <t>93,81; 98,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,63</t>
+          <t>88,79; 96,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,02</t>
+          <t>90,87; 96,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,98</t>
+          <t>83,44; 91,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,42</t>
+          <t>90,7; 96,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,34</t>
+          <t>90,71; 95,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,92</t>
+          <t>89,71; 94,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,85</t>
+          <t>88,13; 93,95</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,47</t>
+          <t>88,48; 93,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>92,72; 96,59</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>93,26; 96,23</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>90,18; 94,64</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>90,81; 94,71</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>92,73%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94,91%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>94,09%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>91,76%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,95</t>
+          <t>92,76; 95,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,12</t>
+          <t>95,47; 98,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,15</t>
+          <t>91,07; 97,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,35</t>
+          <t>90,22; 95,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 9,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 8,07</t>
+          <t>88,77; 92,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,52</t>
+          <t>90,04; 94,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,36</t>
+          <t>89,62; 95,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,3</t>
+          <t>85,28; 92,55</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 10,35</t>
+          <t>91,43; 93,94</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>93,35; 96,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>92,03; 95,85</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>89,6; 93,94</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>94,49%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>96,84%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>95,31%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>89,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>92,37%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92,06%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90,93%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>92,18%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>94,56%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>94,18%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>92,83%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>92,47%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>93,2; 95,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>95,66; 97,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>94,09; 96,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>91,55; 95,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>92,42; 95,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88,25; 91,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>90,71; 93,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>91,75; 94,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90,66; 93,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>88,96; 92,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>91,1; 93,12</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>93,52; 95,37</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>93,25; 95,09</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>91,57; 93,9</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>91,25; 93,49</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>210429</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>328390</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>477780</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>680554</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>424100</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>237574</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>364723</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>572631</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>799072</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>552010</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>448003</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>693113</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1050411</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1479626</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>976109</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>194656; 218906</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>312530; 334976</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>454047; 494496</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>655711; 696083</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>401664; 437774</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>222819; 248626</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>340422; 380689</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>548133; 589686</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>768850; 823515</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>513742; 580272</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>426782; 463516</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>664360; 711523</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1014427; 1074510</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1442063; 1509531</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>933067; 1009659</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>527.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>969.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1181.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>610360</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>901726</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1158291</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1501141</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1001072</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>625911</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>906629</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1152185</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1389748</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1012302</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1236271</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1808356</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2310477</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2890889</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2013373</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>587076; 626564</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>879276; 916752</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1132891; 1176023</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1439745; 1537664</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>965932; 1028445</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>584124; 652267</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>853817; 933026</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1122657; 1176171</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1356030; 1417187</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>984165; 1037731</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1194446; 1269631</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1751355; 1842089</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2273880; 2344067</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2824764; 2937845</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1964874; 2047106</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>768.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>975.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>603.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>434770</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>686744</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>816309</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1013209</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>783761</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>464154</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>720604</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>875840</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1068833</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>816910</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>898924</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1407349</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1692150</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2082042</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1600671</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>416478; 445940</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>657573; 701308</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>793293; 829473</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>964213; 1043262</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>753161; 801352</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>439424; 482341</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>695821; 738363</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>852428; 894723</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1037167; 1093345</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>787675; 839724</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>869117; 921900</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1374797; 1432263</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1665066; 1718066</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2021858; 2121805</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1564211; 1631426</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>756.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>818.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1574.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>920.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>599.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1990353</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1398708</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>812169</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1024572</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1854572</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1276928</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>701711</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>870261</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3844926</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2675636</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1513881</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1894833</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1952150; 2020020</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1373536; 1415089</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>779065; 830637</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>985725; 1048001</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1812887; 1888140</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1242887; 1307579</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>675243; 719842</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>829243; 899890</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3791110; 3895109</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2631532; 2711311</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1480598; 1542194</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1850158; 1939737</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1268.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1107.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1252.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>970.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1416.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1232.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1516.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1519.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1151.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2684.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2339.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2798.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2771.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>2121.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3245912</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3315569</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3264551</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3194903</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3233504</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3182211</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3268885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3302368</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3257653</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3251483</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6428123</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6584454</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6566919</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6452556</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>6484986</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3201415; 3287900</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3275266; 3346630</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3222764; 3303227</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3123988; 3244037</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3176949; 3281621</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3122806; 3231599</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3210445; 3321552</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3254821; 3345730</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3208004; 3303435</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3181241; 3306660</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6353132; 6494253</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>6511720; 6640289</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>6501988; 6630310</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6364893; 6526927</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>6399943; 6556548</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
